--- a/CD Follow up patients.xlsx
+++ b/CD Follow up patients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vramo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josemanuelramosrincon/Documentos/Mis documentos/Inmigrantes/Chagas/Chagas calle/Articulo conocimiento EC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD4E510-D826-4C95-BFA1-C649A0C093E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86578B2C-F00D-2E4F-95C3-65D661DE43FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Follow Up" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>Strongyloides</t>
   </si>
@@ -32,171 +32,6 @@
     <t>PCRChagas</t>
   </si>
   <si>
-    <t>ROSA KARINA CUELLAR DE VARGA</t>
-  </si>
-  <si>
-    <t>JUAN ÁNGEL NOGALES ROJAS</t>
-  </si>
-  <si>
-    <t>MARÍA GUADALUPE JACOBO GUZMÁN</t>
-  </si>
-  <si>
-    <t>FÉLIX ORTEGA CORDERO</t>
-  </si>
-  <si>
-    <t>FRANCISCO SOLA PATRICIO</t>
-  </si>
-  <si>
-    <t>ELISA AROJOTE OARDO</t>
-  </si>
-  <si>
-    <t>SEGUNDADORA BARBA SALVATIERRA</t>
-  </si>
-  <si>
-    <t>DANIEL CERREL QUIROZ</t>
-  </si>
-  <si>
-    <t>MARILIN ARÉVALO VILLAVA 16-06-198</t>
-  </si>
-  <si>
-    <t>LUCÍA PÉREZ PANYAGUA</t>
-  </si>
-  <si>
-    <t>ROBERTA CHOQUE ASILLO</t>
-  </si>
-  <si>
-    <t>FRANCISCO CORONADO REINA</t>
-  </si>
-  <si>
-    <t>JESÚS ÓSCAR LUCERO GUALPA</t>
-  </si>
-  <si>
-    <t>CARMEN PÉREZ SALVATIERRA</t>
-  </si>
-  <si>
-    <t>MARIA ESTHER MERCADO HURTADO</t>
-  </si>
-  <si>
-    <t>FREDDY CORDOBA RUA</t>
-  </si>
-  <si>
-    <t>JUANA PÉREZ SALVATIERRA</t>
-  </si>
-  <si>
-    <t>LEOCADIA QUIROGA GRAJEDA</t>
-  </si>
-  <si>
-    <t>HIMARA ESPERANZA VIDAL CESPEDES</t>
-  </si>
-  <si>
-    <t>INÉS RUIZ LEÓN</t>
-  </si>
-  <si>
-    <t>ALFREDO CUBA MARIACA</t>
-  </si>
-  <si>
-    <t>CARMEN SIVIA GUAZMAN</t>
-  </si>
-  <si>
-    <t>JUAN ÁVALOS LIMO</t>
-  </si>
-  <si>
-    <t>NOLBERTA TORRES CRUZ</t>
-  </si>
-  <si>
-    <t>JOSÉ LUIS MIRANDA RAMÍMER</t>
-  </si>
-  <si>
-    <t>FÉLIX ARGOTE PARDO</t>
-  </si>
-  <si>
-    <t>EMILIANA SOLIZ ALA</t>
-  </si>
-  <si>
-    <t>AUSTINO COPA PEÑARANDA</t>
-  </si>
-  <si>
-    <t>LIMBER MOSCOSO MALLÓN</t>
-  </si>
-  <si>
-    <t>MARÍA LOZADA YEPEZ</t>
-  </si>
-  <si>
-    <t>ZENÓN COTRINA ORELLANA</t>
-  </si>
-  <si>
-    <t>ALICIA MOSCOSO MALLÓN</t>
-  </si>
-  <si>
-    <t>JESÚS BÁRBARA SUÁREZ</t>
-  </si>
-  <si>
-    <t>CONCEPCIÓN VILLCA VILLALOBOS</t>
-  </si>
-  <si>
-    <t>JOSE LUIS OLIVERA INTURIAS</t>
-  </si>
-  <si>
-    <t>FELIMA PÉREZ DE BARBA</t>
-  </si>
-  <si>
-    <t>DIOMEDES HURTADO BASCOPE</t>
-  </si>
-  <si>
-    <t>LEONARDA HURTADO BASCOPE</t>
-  </si>
-  <si>
-    <t>MARIBEL RODRÍGUEZ LÓPEZ</t>
-  </si>
-  <si>
-    <t>YHOMARA HOYOS DURAN</t>
-  </si>
-  <si>
-    <t>CLEMENTINA CLAROS GRAJEDA</t>
-  </si>
-  <si>
-    <t>BASILIA ROSAS RIVAS</t>
-  </si>
-  <si>
-    <t>ADRIANA MICHEL ORIA</t>
-  </si>
-  <si>
-    <t>CRISPÍN BARIENTOS QUISPE</t>
-  </si>
-  <si>
-    <t>PAULINO ALDANA ARICOMA</t>
-  </si>
-  <si>
-    <t>GAVINO DAVID ZAMBRANA SÁNCHEZ</t>
-  </si>
-  <si>
-    <t>GUILLERMO ALDANA ARICOMA</t>
-  </si>
-  <si>
-    <t>EULALIA CHOQUE MAMAMÍ</t>
-  </si>
-  <si>
-    <t>MARÍA SOLA FLORES</t>
-  </si>
-  <si>
-    <t>NEYDI BARRIENTOS MORTAZO</t>
-  </si>
-  <si>
-    <t>TERESO VEIZAGA</t>
-  </si>
-  <si>
-    <t>PABLO ROMERO CABRERO</t>
-  </si>
-  <si>
-    <t>JULIO MAMANI QUISPE</t>
-  </si>
-  <si>
-    <t>MIGUEL MAMANI QUISPE</t>
-  </si>
-  <si>
-    <t>Name+Surname</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -215,9 +50,6 @@
     <t>Place of screeing</t>
   </si>
   <si>
-    <t>Name and surname</t>
-  </si>
-  <si>
     <t>Serology of strongyloides</t>
   </si>
   <si>
@@ -375,6 +207,12 @@
   </si>
   <si>
     <t xml:space="preserve">1 Offered treatment, 2 Lost of follow up (no complete clinical evaliation), 3 Just one appoitment (no complete clinical evaliation), 4 Previouly treated, 5 Older than 55 </t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Code of paticipans</t>
   </si>
 </sst>
 </file>
@@ -768,45 +606,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19.83203125" customWidth="1"/>
+    <col min="20" max="20" width="22.83203125" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -815,51 +652,51 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="O1" t="s">
         <v>2</v>
       </c>
       <c r="P1" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="R1" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="T1" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="U1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>2017</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="C2" s="4">
+        <v>1</v>
       </c>
       <c r="D2" s="4">
         <v>49</v>
@@ -910,15 +747,15 @@
         <v>43538</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="C3" s="4">
+        <v>2</v>
       </c>
       <c r="D3" s="4">
         <v>51</v>
@@ -969,15 +806,15 @@
         <v>43622</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2018</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
+      <c r="C4" s="4">
+        <v>3</v>
       </c>
       <c r="D4" s="4">
         <v>51</v>
@@ -1028,15 +865,15 @@
         <v>43604</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2018</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
+      <c r="C5" s="4">
+        <v>4</v>
       </c>
       <c r="D5" s="4">
         <v>43</v>
@@ -1087,15 +924,15 @@
         <v>43635</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2018</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
+      <c r="C6" s="4">
+        <v>5</v>
       </c>
       <c r="D6" s="4">
         <v>71</v>
@@ -1143,15 +980,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2018</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
+      <c r="C7" s="4">
+        <v>6</v>
       </c>
       <c r="D7" s="4">
         <v>31</v>
@@ -1197,15 +1034,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2018</v>
       </c>
       <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
+      <c r="C8" s="4">
+        <v>7</v>
       </c>
       <c r="D8" s="4">
         <v>57</v>
@@ -1256,15 +1093,15 @@
         <v>43538</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2018</v>
       </c>
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
+      <c r="C9" s="4">
+        <v>8</v>
       </c>
       <c r="D9" s="4">
         <v>40</v>
@@ -1315,15 +1152,15 @@
         <v>43536</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2018</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
+      <c r="C10" s="4">
+        <v>9</v>
       </c>
       <c r="D10" s="4">
         <v>33</v>
@@ -1374,15 +1211,15 @@
         <v>43635</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2018</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
+      <c r="C11" s="4">
+        <v>10</v>
       </c>
       <c r="D11" s="4">
         <v>44</v>
@@ -1427,15 +1264,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
+      <c r="C12" s="4">
+        <v>11</v>
       </c>
       <c r="D12" s="4">
         <v>35</v>
@@ -1492,15 +1329,15 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2018</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
+      <c r="C13" s="4">
+        <v>12</v>
       </c>
       <c r="D13" s="4">
         <v>48</v>
@@ -1557,15 +1394,15 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2016</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>15</v>
+      <c r="C14" s="4">
+        <v>13</v>
       </c>
       <c r="D14" s="4">
         <v>53</v>
@@ -1622,15 +1459,15 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2016</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>16</v>
+      <c r="C15" s="4">
+        <v>14</v>
       </c>
       <c r="D15" s="4">
         <v>43</v>
@@ -1687,15 +1524,15 @@
         <v>43592</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2016</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>17</v>
+      <c r="C16" s="4">
+        <v>15</v>
       </c>
       <c r="D16" s="4">
         <v>38</v>
@@ -1752,15 +1589,15 @@
         <v>43626</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2018</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
+      <c r="C17" s="4">
+        <v>16</v>
       </c>
       <c r="D17" s="4">
         <v>53</v>
@@ -1817,15 +1654,15 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2018</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
-        <v>19</v>
+      <c r="C18" s="4">
+        <v>17</v>
       </c>
       <c r="D18" s="4">
         <v>58</v>
@@ -1882,15 +1719,15 @@
         <v>43613</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2017</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>20</v>
+      <c r="C19" s="4">
+        <v>18</v>
       </c>
       <c r="D19" s="4">
         <v>59</v>
@@ -1944,15 +1781,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2016</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
-        <v>21</v>
+      <c r="C20" s="4">
+        <v>19</v>
       </c>
       <c r="D20" s="4">
         <v>38</v>
@@ -2009,15 +1846,15 @@
         <v>43622</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2018</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
-        <v>22</v>
+      <c r="C21" s="4">
+        <v>20</v>
       </c>
       <c r="D21" s="4">
         <v>44</v>
@@ -2074,15 +1911,15 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2018</v>
       </c>
       <c r="B22" s="4">
         <v>3</v>
       </c>
-      <c r="C22" t="s">
-        <v>23</v>
+      <c r="C22" s="4">
+        <v>21</v>
       </c>
       <c r="D22" s="4">
         <v>41</v>
@@ -2139,15 +1976,15 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2018</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
       </c>
-      <c r="C23" t="s">
-        <v>24</v>
+      <c r="C23" s="4">
+        <v>22</v>
       </c>
       <c r="D23" s="4">
         <v>51</v>
@@ -2204,15 +2041,15 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>2018</v>
       </c>
       <c r="B24" s="4">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
+      <c r="C24" s="4">
+        <v>23</v>
       </c>
       <c r="D24" s="4">
         <v>51</v>
@@ -2269,15 +2106,15 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2018</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
+      <c r="C25" s="4">
+        <v>24</v>
       </c>
       <c r="D25" s="4">
         <v>46</v>
@@ -2334,15 +2171,15 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>2018</v>
       </c>
       <c r="B26" s="4">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
-        <v>27</v>
+      <c r="C26" s="4">
+        <v>25</v>
       </c>
       <c r="D26" s="4">
         <v>43</v>
@@ -2399,15 +2236,15 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2018</v>
       </c>
       <c r="B27" s="4">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
-        <v>28</v>
+      <c r="C27" s="4">
+        <v>26</v>
       </c>
       <c r="D27" s="4">
         <v>39</v>
@@ -2464,15 +2301,15 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2018</v>
       </c>
       <c r="B28" s="4">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
-        <v>29</v>
+      <c r="C28" s="4">
+        <v>27</v>
       </c>
       <c r="D28" s="4">
         <v>37</v>
@@ -2529,15 +2366,15 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>2018</v>
       </c>
       <c r="B29" s="4">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>30</v>
+      <c r="C29" s="4">
+        <v>28</v>
       </c>
       <c r="D29" s="4">
         <v>31</v>
@@ -2594,15 +2431,15 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2018</v>
       </c>
       <c r="B30" s="4">
         <v>3</v>
       </c>
-      <c r="C30" t="s">
-        <v>31</v>
+      <c r="C30" s="4">
+        <v>29</v>
       </c>
       <c r="D30" s="4">
         <v>31</v>
@@ -2659,15 +2496,15 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>2018</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
-        <v>32</v>
+      <c r="C31" s="4">
+        <v>30</v>
       </c>
       <c r="D31" s="4">
         <v>54</v>
@@ -2724,15 +2561,15 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>2018</v>
       </c>
       <c r="B32" s="4">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
-        <v>33</v>
+      <c r="C32" s="4">
+        <v>31</v>
       </c>
       <c r="D32" s="4">
         <v>45</v>
@@ -2789,15 +2626,15 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>2018</v>
       </c>
       <c r="B33" s="4">
         <v>3</v>
       </c>
-      <c r="C33" t="s">
-        <v>34</v>
+      <c r="C33" s="4">
+        <v>32</v>
       </c>
       <c r="D33" s="4">
         <v>41</v>
@@ -2854,15 +2691,15 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>2017</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
-        <v>35</v>
+      <c r="C34" s="4">
+        <v>33</v>
       </c>
       <c r="D34" s="4">
         <v>60</v>
@@ -2919,15 +2756,15 @@
         <v>43741</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>2017</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
-        <v>36</v>
+      <c r="C35" s="4">
+        <v>34</v>
       </c>
       <c r="D35" s="4">
         <v>47</v>
@@ -2984,15 +2821,15 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>2017</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
-        <v>37</v>
+      <c r="C36" s="4">
+        <v>35</v>
       </c>
       <c r="D36" s="4">
         <v>30</v>
@@ -3049,15 +2886,15 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>2017</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
       </c>
-      <c r="C37" t="s">
-        <v>38</v>
+      <c r="C37" s="4">
+        <v>36</v>
       </c>
       <c r="D37" s="4">
         <v>57</v>
@@ -3114,15 +2951,15 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>2017</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
       </c>
-      <c r="C38" t="s">
-        <v>39</v>
+      <c r="C38" s="4">
+        <v>37</v>
       </c>
       <c r="D38" s="4">
         <v>48</v>
@@ -3179,15 +3016,15 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>2017</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
-        <v>40</v>
+      <c r="C39" s="4">
+        <v>38</v>
       </c>
       <c r="D39" s="4">
         <v>43</v>
@@ -3244,15 +3081,15 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>2017</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
-        <v>41</v>
+      <c r="C40" s="4">
+        <v>39</v>
       </c>
       <c r="D40" s="4">
         <v>40</v>
@@ -3309,15 +3146,15 @@
         <v>43172</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2016</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
-        <v>42</v>
+      <c r="C41" s="4">
+        <v>40</v>
       </c>
       <c r="D41" s="4">
         <v>54</v>
@@ -3374,15 +3211,15 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2016</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
-        <v>43</v>
+      <c r="C42" s="4">
+        <v>41</v>
       </c>
       <c r="D42" s="4">
         <v>32</v>
@@ -3439,15 +3276,15 @@
         <v>43453</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2016</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
       </c>
-      <c r="C43" t="s">
-        <v>44</v>
+      <c r="C43" s="4">
+        <v>42</v>
       </c>
       <c r="D43" s="4">
         <v>33</v>
@@ -3504,15 +3341,15 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2018</v>
       </c>
       <c r="B44" s="4">
         <v>3</v>
       </c>
-      <c r="C44" t="s">
-        <v>45</v>
+      <c r="C44" s="4">
+        <v>43</v>
       </c>
       <c r="D44" s="4">
         <v>42</v>
@@ -3549,15 +3386,15 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>2018</v>
       </c>
       <c r="B45" s="4">
         <v>2</v>
       </c>
-      <c r="C45" t="s">
-        <v>46</v>
+      <c r="C45" s="4">
+        <v>44</v>
       </c>
       <c r="D45" s="4">
         <v>49</v>
@@ -3594,15 +3431,15 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>2018</v>
       </c>
       <c r="B46" s="4">
         <v>2</v>
       </c>
-      <c r="C46" t="s">
-        <v>47</v>
+      <c r="C46" s="4">
+        <v>45</v>
       </c>
       <c r="D46" s="4">
         <v>45</v>
@@ -3639,15 +3476,15 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>2018</v>
       </c>
       <c r="B47" s="4">
         <v>3</v>
       </c>
-      <c r="C47" t="s">
-        <v>48</v>
+      <c r="C47" s="4">
+        <v>46</v>
       </c>
       <c r="D47" s="4">
         <v>45</v>
@@ -3684,15 +3521,15 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>2018</v>
       </c>
       <c r="B48" s="4">
         <v>2</v>
       </c>
-      <c r="C48" t="s">
-        <v>49</v>
+      <c r="C48" s="4">
+        <v>47</v>
       </c>
       <c r="D48" s="4">
         <v>42</v>
@@ -3729,15 +3566,15 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2018</v>
       </c>
       <c r="B49" s="4">
         <v>2</v>
       </c>
-      <c r="C49" t="s">
-        <v>50</v>
+      <c r="C49" s="4">
+        <v>48</v>
       </c>
       <c r="D49" s="4">
         <v>39</v>
@@ -3774,15 +3611,15 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2018</v>
       </c>
       <c r="B50" s="4">
         <v>2</v>
       </c>
-      <c r="C50" t="s">
-        <v>51</v>
+      <c r="C50" s="4">
+        <v>49</v>
       </c>
       <c r="D50" s="4">
         <v>39</v>
@@ -3819,15 +3656,15 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>2018</v>
       </c>
       <c r="B51" s="4">
         <v>2</v>
       </c>
-      <c r="C51" t="s">
-        <v>52</v>
+      <c r="C51" s="4">
+        <v>50</v>
       </c>
       <c r="D51" s="4">
         <v>21</v>
@@ -3864,15 +3701,15 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>2017</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
       </c>
-      <c r="C52" t="s">
-        <v>53</v>
+      <c r="C52" s="4">
+        <v>51</v>
       </c>
       <c r="D52" s="4">
         <v>41</v>
@@ -3909,15 +3746,15 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>2016</v>
       </c>
       <c r="B53" s="4">
         <v>1</v>
       </c>
-      <c r="C53" t="s">
-        <v>54</v>
+      <c r="C53" s="4">
+        <v>52</v>
       </c>
       <c r="D53" s="4">
         <v>51</v>
@@ -3954,15 +3791,15 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>2017</v>
       </c>
       <c r="B54" s="4">
         <v>1</v>
       </c>
-      <c r="C54" t="s">
-        <v>55</v>
+      <c r="C54" s="4">
+        <v>53</v>
       </c>
       <c r="D54" s="4">
         <v>64</v>
@@ -3999,15 +3836,15 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>2017</v>
       </c>
       <c r="B55" s="4">
         <v>1</v>
       </c>
-      <c r="C55" t="s">
-        <v>56</v>
+      <c r="C55" s="4">
+        <v>54</v>
       </c>
       <c r="D55" s="4">
         <v>52</v>
@@ -4054,255 +3891,255 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="150.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="150.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
         <v>61</v>
       </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
